--- a/For paper/TimePerformance.xlsx
+++ b/For paper/TimePerformance.xlsx
@@ -90,12 +90,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,10 +116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +426,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,31 +438,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -468,25 +476,25 @@
       <c r="C2">
         <v>31</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>10.5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <f>D2/E2</f>
         <v>233.33333333333334</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <f>LOG10(D2/E2)</f>
         <v>2.3679767852945943</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <f>LOG10(D2)</f>
         <v>1.0211892990699381</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <f>LOG10(E2)</f>
         <v>-1.3467874862246563</v>
       </c>
@@ -501,25 +509,25 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F9" si="0">D3/E3</f>
         <v>4.1875</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G9" si="1">LOG10(D3/E3)</f>
         <v>0.62195482004490166</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f>LOG10(D3)</f>
         <v>-1.1739251972991736</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <f>LOG10(E3)</f>
         <v>-1.7958800173440752</v>
       </c>
@@ -534,25 +542,25 @@
       <c r="C4">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.53</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2.7E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>D4/E4</f>
         <v>19.62962962962963</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f>LOG10(D4/E4)</f>
         <v>1.2929121054418018</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>LOG10(D4)</f>
         <v>-0.27572413039921095</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <f>LOG10(E4)</f>
         <v>-1.5686362358410126</v>
       </c>
@@ -567,25 +575,25 @@
       <c r="C5">
         <v>26</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20.3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>D5/E5</f>
         <v>548.64864864864865</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f>LOG10(D5/E5)</f>
         <v>2.739294313846218</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>LOG10(D5)</f>
         <v>1.307496037913213</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <f>LOG10(E5)</f>
         <v>-1.431798275933005</v>
       </c>
@@ -600,25 +608,25 @@
       <c r="C6">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>10.5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.1867</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>56.239957150508836</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
         <v>1.7500449811208598</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f>LOG10(D6)</f>
         <v>1.0211892990699381</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <f>LOG10(E6)</f>
         <v>-0.72885568205092166</v>
       </c>
@@ -633,27 +641,27 @@
       <c r="C7">
         <v>100</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>17.5</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.60099999999999998</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>29.118136439267889</v>
-      </c>
-      <c r="G7" s="2">
+        <v>102.94117647058823</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>1.464163576683555</v>
-      </c>
-      <c r="H7" s="2">
+        <v>2.0125891273080203</v>
+      </c>
+      <c r="H7" s="1">
         <f>LOG10(D7)</f>
         <v>1.2430380486862944</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <f>LOG10(E7)</f>
-        <v>-0.22112552799726048</v>
+        <v>-0.769551078621726</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -666,25 +674,25 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>3.0625</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
         <v>0.48607609737258889</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f>LOG10(D8)</f>
         <v>-1.3098039199714864</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>LOG10(E8)</f>
         <v>-1.7958800173440752</v>
       </c>
@@ -699,25 +707,25 @@
       <c r="C9">
         <v>250</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>2.82</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>4.8620689655172411</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
         <v>0.68682111475642382</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f>LOG10(D9)</f>
         <v>0.45024910831936105</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>LOG10(E9)</f>
         <v>-0.23657200643706275</v>
       </c>
